--- a/Data/EC/NIT-9000946472.xlsx
+++ b/Data/EC/NIT-9000946472.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D918DF3-199C-4482-A972-78A86FD7861D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F7DE489-C4B0-4E2F-B7CD-F83DEB63662A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B4E5DC1E-0EBE-4DA1-B8F1-5CC41255D9EC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{13338441-29E0-4599-8A8A-ED5F37E26009}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="132">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,331 +71,334 @@
     <t>YANETH PATRICIA LONDOÑO JARAMILLO</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -494,7 +497,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -507,9 +512,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -709,23 +712,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -753,10 +756,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -809,7 +812,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61CC6FB3-929C-1A64-6CC4-1BEB0085FFDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68835149-DA07-F3AF-FD21-599977A7FD33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1160,8 +1163,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140D8D91-723C-40C9-BBFA-5ECB3EDAA281}">
-  <dimension ref="B2:J130"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E18104-8C3C-4440-BC7B-6E90C6C31996}">
+  <dimension ref="B2:J131"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1185,7 +1188,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1230,7 +1233,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1262,12 +1265,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>3234307</v>
+        <v>3265556</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1278,17 +1281,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F13" s="5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1315,13 +1318,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>125</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1338,7 +1341,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1361,7 +1364,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1384,7 +1387,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1407,7 +1410,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1430,7 +1433,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1453,7 +1456,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1476,7 +1479,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1499,7 +1502,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1522,7 +1525,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1545,7 +1548,7 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1568,7 +1571,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1591,7 +1594,7 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1614,7 +1617,7 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1637,7 +1640,7 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1660,7 +1663,7 @@
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1683,7 +1686,7 @@
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1706,7 +1709,7 @@
         <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1729,7 +1732,7 @@
         <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1752,7 +1755,7 @@
         <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1775,7 +1778,7 @@
         <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1798,7 +1801,7 @@
         <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1821,7 +1824,7 @@
         <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1844,7 +1847,7 @@
         <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1867,7 +1870,7 @@
         <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1890,7 +1893,7 @@
         <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1913,7 +1916,7 @@
         <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G41" s="18">
         <v>781242</v>
@@ -3247,7 +3250,7 @@
         <v>94</v>
       </c>
       <c r="F99" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G99" s="18">
         <v>781242</v>
@@ -3270,7 +3273,7 @@
         <v>95</v>
       </c>
       <c r="F100" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G100" s="18">
         <v>781242</v>
@@ -3293,7 +3296,7 @@
         <v>96</v>
       </c>
       <c r="F101" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G101" s="18">
         <v>781242</v>
@@ -3316,7 +3319,7 @@
         <v>97</v>
       </c>
       <c r="F102" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G102" s="18">
         <v>781242</v>
@@ -3339,7 +3342,7 @@
         <v>98</v>
       </c>
       <c r="F103" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G103" s="18">
         <v>781242</v>
@@ -3362,7 +3365,7 @@
         <v>99</v>
       </c>
       <c r="F104" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G104" s="18">
         <v>781242</v>
@@ -3385,7 +3388,7 @@
         <v>100</v>
       </c>
       <c r="F105" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G105" s="18">
         <v>781242</v>
@@ -3408,7 +3411,7 @@
         <v>101</v>
       </c>
       <c r="F106" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G106" s="18">
         <v>781242</v>
@@ -3431,7 +3434,7 @@
         <v>102</v>
       </c>
       <c r="F107" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G107" s="18">
         <v>781242</v>
@@ -3454,7 +3457,7 @@
         <v>103</v>
       </c>
       <c r="F108" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G108" s="18">
         <v>781242</v>
@@ -3477,7 +3480,7 @@
         <v>104</v>
       </c>
       <c r="F109" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G109" s="18">
         <v>781242</v>
@@ -3500,7 +3503,7 @@
         <v>105</v>
       </c>
       <c r="F110" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G110" s="18">
         <v>781242</v>
@@ -3523,7 +3526,7 @@
         <v>106</v>
       </c>
       <c r="F111" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G111" s="18">
         <v>781242</v>
@@ -3546,7 +3549,7 @@
         <v>107</v>
       </c>
       <c r="F112" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G112" s="18">
         <v>781242</v>
@@ -3569,7 +3572,7 @@
         <v>108</v>
       </c>
       <c r="F113" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G113" s="18">
         <v>781242</v>
@@ -3592,7 +3595,7 @@
         <v>109</v>
       </c>
       <c r="F114" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G114" s="18">
         <v>781242</v>
@@ -3615,7 +3618,7 @@
         <v>110</v>
       </c>
       <c r="F115" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G115" s="18">
         <v>781242</v>
@@ -3638,7 +3641,7 @@
         <v>111</v>
       </c>
       <c r="F116" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G116" s="18">
         <v>781242</v>
@@ -3661,7 +3664,7 @@
         <v>112</v>
       </c>
       <c r="F117" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G117" s="18">
         <v>781242</v>
@@ -3684,7 +3687,7 @@
         <v>113</v>
       </c>
       <c r="F118" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G118" s="18">
         <v>781242</v>
@@ -3707,7 +3710,7 @@
         <v>114</v>
       </c>
       <c r="F119" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G119" s="18">
         <v>781242</v>
@@ -3730,7 +3733,7 @@
         <v>115</v>
       </c>
       <c r="F120" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G120" s="18">
         <v>781242</v>
@@ -3753,7 +3756,7 @@
         <v>116</v>
       </c>
       <c r="F121" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G121" s="18">
         <v>781242</v>
@@ -3776,7 +3779,7 @@
         <v>117</v>
       </c>
       <c r="F122" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G122" s="18">
         <v>781242</v>
@@ -3799,7 +3802,7 @@
         <v>118</v>
       </c>
       <c r="F123" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G123" s="18">
         <v>781242</v>
@@ -3809,42 +3812,54 @@
       <c r="J123" s="20"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B124" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C124" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E124" s="22" t="s">
+      <c r="B124" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="F124" s="24">
-        <v>24640</v>
-      </c>
-      <c r="G124" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H124" s="25"/>
-      <c r="I124" s="25"/>
-      <c r="J124" s="26"/>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B129" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="C129" s="32"/>
-      <c r="H129" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I129" s="1"/>
-      <c r="J129" s="1"/>
+      <c r="F124" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G124" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H124" s="19"/>
+      <c r="I124" s="19"/>
+      <c r="J124" s="20"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B125" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E125" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="F125" s="24">
+        <v>31249</v>
+      </c>
+      <c r="G125" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H125" s="25"/>
+      <c r="I125" s="25"/>
+      <c r="J125" s="26"/>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B130" s="32" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C130" s="32"/>
       <c r="H130" s="1" t="s">
@@ -3853,12 +3868,23 @@
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
     </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B131" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C131" s="32"/>
+      <c r="H131" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B131:C131"/>
     <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="H131:J131"/>
     <mergeCell ref="H130:J130"/>
-    <mergeCell ref="H129:J129"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
